--- a/linearization_heuristic_dyn_models/linearization_heuristic_results_180_days.xlsx
+++ b/linearization_heuristic_dyn_models/linearization_heuristic_results_180_days.xlsx
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>55062.7257790053</v>
+        <v>60848.79486621871</v>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>91080218059.89664</v>
+        <v>91374816049.77301</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>85182702160.09927</v>
+        <v>85015604973.8835</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>55668.38180149832</v>
+        <v>61436.25340635831</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>91053680060.37607</v>
+        <v>91348500629.70424</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         <v>2000</v>
       </c>
       <c r="G3" t="n">
-        <v>83628471859.26556</v>
+        <v>83455906330.53168</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -558,13 +558,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>61777.88734524607</v>
+        <v>68704.53917792696</v>
       </c>
       <c r="C4" t="n">
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>91082305693.87048</v>
+        <v>91344620460.91911</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         <v>2000</v>
       </c>
       <c r="G4" t="n">
-        <v>85163513973.79478</v>
+        <v>84964515780.99345</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62392.73513419144</v>
+        <v>69288.90071436594</v>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>91052985673.18442</v>
+        <v>91315830551.4501</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>83527259977.68861</v>
+        <v>83318508790.02858</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48995.81204318079</v>
+        <v>56337.08762636479</v>
       </c>
       <c r="C6" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>85645093608.13889</v>
+        <v>84554801714.51651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         <v>2000</v>
       </c>
       <c r="G6" t="n">
-        <v>25223579253.7153</v>
+        <v>15527131851.68781</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49495.96184997579</v>
+        <v>56874.21707019051</v>
       </c>
       <c r="C7" t="n">
         <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>85617722302.89899</v>
+        <v>84526998498.32367</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>2000</v>
       </c>
       <c r="G7" t="n">
-        <v>23642843679.01256</v>
+        <v>13776448083.28479</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -702,13 +702,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48458.30300010474</v>
+        <v>56024.38565162199</v>
       </c>
       <c r="C8" t="n">
         <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>85281454732.89153</v>
+        <v>84449457716.90875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>2000</v>
       </c>
       <c r="G8" t="n">
-        <v>25486329148.95127</v>
+        <v>15758505557.68437</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>48956.8907052809</v>
+        <v>56564.89569795261</v>
       </c>
       <c r="C9" t="n">
         <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>85254440659.34239</v>
+        <v>84421950578.89888</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>2000</v>
       </c>
       <c r="G9" t="n">
-        <v>23911360653.74297</v>
+        <v>13995665498.02525</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
